--- a/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-手机端教师优先级打分表（answer）.xlsx
+++ b/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-手机端教师优先级打分表（answer）.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>本文档用于教师用户代表对于本系统教师用户功能点打分（APP）</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>教师可以按照关键词进行搜索</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +447,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -460,25 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,21 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,23 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,37 +501,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,9 +515,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,8 +552,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,49 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +652,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +724,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,37 +754,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,35 +796,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -939,26 +963,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,17 +1015,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -999,16 +1023,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,249 +1056,261 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,662 +1634,662 @@
   <sheetPr/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:J11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="10"/>
+    <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="22.5" spans="1:17">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="13" customFormat="1" ht="22.5" spans="1:17">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:17">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" s="13" customFormat="1" spans="1:17">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:17">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="15">
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" s="13" customFormat="1" spans="1:17">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" s="10" customFormat="1" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="34"/>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="1:17">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="34"/>
-    </row>
-    <row r="6" s="10" customFormat="1" spans="1:17">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" s="13" customFormat="1" spans="1:17">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" s="13" customFormat="1" spans="1:17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" s="13" customFormat="1" spans="1:17">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" s="13" customFormat="1" spans="1:17">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" s="13" customFormat="1" spans="1:17">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:17">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20" t="s">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" s="13" customFormat="1" spans="1:17">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:17">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" s="13" customFormat="1" spans="1:17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="24">
         <v>1</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26">
         <v>1</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22" t="s">
+      <c r="L10" s="25"/>
+      <c r="M10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:17">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20">
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" s="13" customFormat="1" spans="1:17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="24">
         <v>2</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26">
         <v>2</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22" t="s">
+      <c r="L11" s="25"/>
+      <c r="M11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:17">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20">
-        <v>3</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" s="13" customFormat="1" spans="1:17">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="24">
+        <v>3</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22">
-        <v>3</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26">
+        <v>3</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:17">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="20">
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" s="13" customFormat="1" spans="1:17">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24">
         <v>4</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26">
         <v>4</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" s="10" customFormat="1" spans="1:17">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="20">
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" s="13" customFormat="1" spans="1:17">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="24">
         <v>5</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26">
         <v>5</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22" t="s">
+      <c r="L14" s="25"/>
+      <c r="M14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:17">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20">
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" s="13" customFormat="1" spans="1:17">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="24">
         <v>6</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26">
         <v>6</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22" t="s">
+      <c r="L15" s="25"/>
+      <c r="M15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" s="10" customFormat="1" spans="1:17">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="20">
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" s="13" customFormat="1" spans="1:17">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="24">
         <v>7</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26">
         <v>7</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="20">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" s="13" customFormat="1" spans="1:17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24">
         <v>8</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22">
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26">
         <v>8</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="25"/>
+      <c r="M17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" s="10" customFormat="1" spans="1:17">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20">
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+    </row>
+    <row r="18" s="13" customFormat="1" spans="1:17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24">
         <v>9</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26">
         <v>9</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22" t="s">
+      <c r="L18" s="25"/>
+      <c r="M18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" s="10" customFormat="1" spans="1:17">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="15">
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+    </row>
+    <row r="19" s="13" customFormat="1" spans="1:17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="36"/>
-    </row>
-    <row r="20" s="10" customFormat="1" spans="1:17">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" s="10" customFormat="1" ht="20.25" spans="1:17">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="28">
-        <v>3</v>
-      </c>
-      <c r="D21" s="29" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="40"/>
+    </row>
+    <row r="20" s="13" customFormat="1" spans="1:17">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="41"/>
+    </row>
+    <row r="21" s="13" customFormat="1" ht="20.25" spans="1:17">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="32">
+        <v>3</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" s="10" customFormat="1" ht="20.25" spans="1:17">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="28">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" s="13" customFormat="1" ht="20.25" spans="1:17">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="32">
         <v>4</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:17">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="30">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" s="13" customFormat="1" spans="1:17">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="34">
         <v>5</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:17">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:17">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:17">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:17">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-    </row>
-    <row r="28" s="10" customFormat="1" ht="20.25" spans="1:17">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="28">
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+    </row>
+    <row r="24" s="13" customFormat="1" spans="1:17">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" s="13" customFormat="1" spans="1:17">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" s="13" customFormat="1" spans="1:17">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+    </row>
+    <row r="27" s="13" customFormat="1" spans="1:17">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+    </row>
+    <row r="28" s="13" customFormat="1" ht="20.25" spans="1:17">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="32">
         <v>6</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -2320,16 +2356,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
     <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:15">
@@ -2436,317 +2473,1594 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="71.25" spans="1:2">
+    <row r="5" ht="15.75" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O5" s="8">
+        <f>J5/(L5*K3)+(N5*M3)</f>
+        <v>1.70171521035599</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" ht="57" spans="1:2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>7</v>
+      </c>
+      <c r="I6" s="8">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O6" s="8">
+        <f>J6/(L6*K3)+(N6*M3)</f>
+        <v>2.22733009708738</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O7" s="8">
+        <f>J7/(L7*K3)+(N7*M3)</f>
+        <v>3.05553398058252</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" ht="71.25" spans="1:2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8</v>
+      </c>
+      <c r="I8" s="8">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O8" s="8">
+        <f>J8/(L8*K3)+(N8*M3)</f>
+        <v>2.88266990291262</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" ht="57" spans="1:2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O9" s="8">
+        <f>J9/(L9*K3)+(N9*M3)</f>
+        <v>1.57226537216828</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" ht="71.25" spans="1:2">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>15</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O10" s="8">
+        <f>J10/(L10*K3)+(N10*M3)</f>
+        <v>1.96195792880259</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" ht="99.75" spans="1:2">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>14</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O11" s="8">
+        <f>J11/(L11*K3)+(N11*M3)</f>
+        <v>1.91988673139159</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" ht="57" spans="1:2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O12" s="8">
+        <f>J12/(L12*K3)+(N12*M3)</f>
+        <v>2.39695792880259</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" ht="213.75" spans="1:2">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <v>7</v>
+      </c>
+      <c r="H13" s="9">
+        <v>7</v>
+      </c>
+      <c r="I13" s="8">
+        <v>21</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O13" s="8">
+        <f>J13/(L13*K3)+(N13*M3)</f>
+        <v>2.68849514563107</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" ht="114" spans="1:2">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8</v>
+      </c>
+      <c r="I14" s="8">
+        <v>22</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M14" s="4">
+        <v>2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O14" s="8">
+        <f>J14/(L14*K3)+(N14*M3)</f>
+        <v>2.31660194174757</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" ht="228" spans="1:2">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+      <c r="H15" s="9">
+        <v>7</v>
+      </c>
+      <c r="I15" s="8">
+        <v>19</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O15" s="8">
+        <f>J15/(L15*K3)+(N15*M3)</f>
+        <v>2.13671521035599</v>
+      </c>
+    </row>
+    <row r="16" ht="57" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" ht="42.75" spans="1:2">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9">
+        <v>7</v>
+      </c>
+      <c r="I16" s="8">
+        <v>21</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O16" s="8">
+        <f>J16/(L16*K3)+(N16*M3)</f>
+        <v>1.79233009708738</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:15">
       <c r="A17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" ht="156.75" spans="1:2">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M17" s="4">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O17" s="8">
+        <f>J17/(L17*K3)+(N17*M3)</f>
+        <v>2.18553398058252</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" ht="99.75" spans="1:2">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>24</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O18" s="8">
+        <f>J18/(L18*K3)+(N18*M3)</f>
+        <v>2.88266990291262</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:15">
       <c r="A19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" ht="85.5" spans="1:2">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8">
+        <v>16</v>
+      </c>
+      <c r="J19" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O19" s="8">
+        <f>J19/(L19*K3)+(N19*M3)</f>
+        <v>2.00726537216828</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" ht="142.5" spans="1:2">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O20" s="8">
+        <f>J20/(L20*K3)+(N20*M3)</f>
+        <v>2.29043689320388</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" ht="128.25" spans="1:2">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8">
+        <v>14</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O21" s="8">
+        <f>J21/(L21*K3)+(N21*M3)</f>
+        <v>1.79233009708738</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" ht="71.25" spans="1:2">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="8">
+        <v>15</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O22" s="8">
+        <f>J22/(L22*K3)+(N22*M3)</f>
+        <v>1.52695792880259</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" ht="42.75" spans="1:2">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9">
+        <v>7</v>
+      </c>
+      <c r="H23" s="9">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8">
+        <v>21</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O23" s="8">
+        <f>J23/(L23*K3)+(N23*M3)</f>
+        <v>2.22733009708738</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:15">
       <c r="A24" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" ht="71.25" spans="1:2">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9">
+        <v>7</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8</v>
+      </c>
+      <c r="I24" s="8">
+        <v>22</v>
+      </c>
+      <c r="J24" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O24" s="8">
+        <f>J24/(L24*K3)+(N24*M3)</f>
+        <v>4.63320388349515</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:15">
       <c r="A25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" ht="128.25" spans="1:2">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9">
+        <v>7</v>
+      </c>
+      <c r="H25" s="9">
+        <v>8</v>
+      </c>
+      <c r="I25" s="8">
+        <v>22</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O25" s="8">
+        <f>J25/(L25*K3)+(N25*M3)</f>
+        <v>2.31660194174757</v>
+      </c>
+    </row>
+    <row r="26" ht="28.5" spans="1:15">
       <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" ht="128.25" spans="1:2">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9">
+        <v>6</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7</v>
+      </c>
+      <c r="I26" s="8">
+        <v>19</v>
+      </c>
+      <c r="J26" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="O26" s="8">
+        <f>J26/(L26*K3)+(N26*M3)</f>
+        <v>1.70171521035599</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:15">
       <c r="A27" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" ht="85.5" spans="1:2">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9">
+        <v>7</v>
+      </c>
+      <c r="H27" s="9">
+        <v>7</v>
+      </c>
+      <c r="I27" s="8">
+        <v>21</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M27" s="4">
+        <v>3</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O27" s="8">
+        <f>J27/(L27*K3)+(N27*M3)</f>
+        <v>2.22733009708738</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" ht="57" spans="1:2">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9">
+        <v>6</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7</v>
+      </c>
+      <c r="I28" s="8">
+        <v>19</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M28" s="4">
+        <v>3</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O28" s="8">
+        <f>J28/(L28*K3)+(N28*M3)</f>
+        <v>2.55257281553398</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:15">
       <c r="A29" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" ht="71.25" spans="1:2">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9">
+        <v>7</v>
+      </c>
+      <c r="I29" s="8">
+        <v>21</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M29" s="4">
+        <v>3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O29" s="8">
+        <f>J29/(L29*K3)+(N29*M3)</f>
+        <v>2.68849514563107</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:15">
       <c r="A30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" ht="71.25" spans="1:2">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9">
+        <v>7</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3</v>
+      </c>
+      <c r="N30" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O30" s="8">
+        <f>J30/(L30*K3)+(N30*M3)</f>
+        <v>2.62053398058252</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="1:15">
       <c r="A31" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" ht="85.5" spans="1:2">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9">
+        <v>8</v>
+      </c>
+      <c r="H31" s="9">
+        <v>8</v>
+      </c>
+      <c r="I31" s="8">
+        <v>24</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M31" s="4">
+        <v>3</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O31" s="8">
+        <f>J31/(L31*K3)+(N31*M3)</f>
+        <v>2.35677993527508</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="1:15">
       <c r="A32" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" ht="42.75" spans="1:2">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8">
+        <v>16</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O32" s="8">
+        <f>J32/(L32*K3)+(N32*M3)</f>
+        <v>2.35839805825243</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:15">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" ht="114" spans="1:2">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5</v>
+      </c>
+      <c r="I33" s="8">
+        <v>15</v>
+      </c>
+      <c r="J33" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O33" s="8">
+        <f>J33/(L33*K3)+(N33*M3)</f>
+        <v>2.29043689320388</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:15">
       <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" ht="71.25" spans="1:2">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9">
+        <v>5</v>
+      </c>
+      <c r="H34" s="9">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>14</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+      <c r="N34" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O34" s="8">
+        <f>J34/(L34*K3)+(N34*M3)</f>
+        <v>3.14966019417476</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:15">
       <c r="A35" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" ht="85.5" spans="1:2">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5</v>
+      </c>
+      <c r="I35" s="8">
+        <v>15</v>
+      </c>
+      <c r="J35" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K35" s="4">
+        <v>3</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M35" s="4">
+        <v>3</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O35" s="8">
+        <f>J35/(L35*K3)+(N35*M3)</f>
+        <v>1.96195792880259</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="1:15">
       <c r="A36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" ht="114" spans="1:2">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9">
+        <v>7</v>
+      </c>
+      <c r="H36" s="9">
+        <v>7</v>
+      </c>
+      <c r="I36" s="8">
+        <v>21</v>
+      </c>
+      <c r="J36" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M36" s="4">
+        <v>3</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O36" s="8">
+        <f>J36/(L36*K3)+(N36*M3)</f>
+        <v>2.22733009708738</v>
+      </c>
+    </row>
+    <row r="37" ht="42.75" spans="1:15">
       <c r="A37" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" ht="85.5" spans="1:2">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9">
+        <v>7</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8</v>
+      </c>
+      <c r="I37" s="8">
+        <v>22</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2.98</v>
+      </c>
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M37" s="4">
+        <v>3</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O37" s="8">
+        <f>J37/(L37*K3)+(N37*M3)</f>
+        <v>2.75160194174757</v>
+      </c>
+    </row>
+    <row r="38" ht="28.5" spans="1:15">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" ht="99.75" spans="1:2">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9">
+        <v>6</v>
+      </c>
+      <c r="H38" s="9">
+        <v>7</v>
+      </c>
+      <c r="I38" s="8">
+        <v>19</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M38" s="4">
+        <v>3</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O38" s="8">
+        <f>J38/(L38*K3)+(N38*M3)</f>
+        <v>2.13671521035599</v>
+      </c>
+    </row>
+    <row r="39" ht="28.5" spans="1:15">
       <c r="A39" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" ht="85.5" spans="1:2">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9">
+        <v>7</v>
+      </c>
+      <c r="H39" s="9">
+        <v>7</v>
+      </c>
+      <c r="I39" s="8">
+        <v>21</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M39" s="4">
+        <v>4</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O39" s="8">
+        <f>J39/(L39*K3)+(N39*M3)</f>
+        <v>2.66233009708738</v>
+      </c>
+    </row>
+    <row r="40" ht="28.5" spans="1:15">
       <c r="A40" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" ht="108" spans="1:2">
-      <c r="A41" s="8" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9">
+        <v>7</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6</v>
+      </c>
+      <c r="I40" s="8">
+        <v>20</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2.71</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M40" s="4">
+        <v>4</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O40" s="8">
+        <f>J40/(L40*K3)+(N40*M3)</f>
+        <v>2.61702265372168</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:15">
+      <c r="A41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" ht="67.5" spans="1:2">
-      <c r="A42" s="8" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9">
+        <v>8</v>
+      </c>
+      <c r="H41" s="9">
+        <v>8</v>
+      </c>
+      <c r="I41" s="8">
+        <v>24</v>
+      </c>
+      <c r="J41" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O41" s="8">
+        <f>J41/(L41*K3)+(N41*M3)</f>
+        <v>2.79177993527508</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:15">
+      <c r="A42" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" ht="54" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9">
+        <v>5</v>
+      </c>
+      <c r="H42" s="9">
+        <v>6</v>
+      </c>
+      <c r="I42" s="8">
+        <v>16</v>
+      </c>
+      <c r="J42" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="M42" s="4">
+        <v>4</v>
+      </c>
+      <c r="N42" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="O42" s="8">
+        <f>J42/(L42*K3)+(N42*M3)</f>
+        <v>2.44226537216828</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="1:15">
+      <c r="A43" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="11" t="s">
         <v>123</v>
       </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9">
+        <v>5</v>
+      </c>
+      <c r="H43" s="9">
+        <v>5</v>
+      </c>
+      <c r="I43" s="8">
+        <v>15</v>
+      </c>
+      <c r="J43" s="8">
+        <v>2.03</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="M43" s="4">
+        <v>3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="O43" s="8">
+        <f>J43/(L43*K3)+(N43*M3)</f>
+        <v>2.29043689320388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
+        <v>244</v>
+      </c>
+      <c r="H44" s="8">
+        <v>250</v>
+      </c>
+      <c r="I44" s="8">
+        <v>738</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="4">
+        <v>97</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <v>115</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
